--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J2">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>0.4136695637635555</v>
+        <v>0.127366625314</v>
       </c>
       <c r="R2">
-        <v>3.723026073872</v>
+        <v>1.146299627826</v>
       </c>
       <c r="S2">
-        <v>0.2780398127725447</v>
+        <v>0.1140540749428961</v>
       </c>
       <c r="T2">
-        <v>0.2780398127725447</v>
+        <v>0.1140540749428961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J3">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
-        <v>0.02960355314311111</v>
+        <v>0.01355407188255555</v>
       </c>
       <c r="R3">
-        <v>0.266431978288</v>
+        <v>0.121986646943</v>
       </c>
       <c r="S3">
-        <v>0.01989744253463455</v>
+        <v>0.01213737999623728</v>
       </c>
       <c r="T3">
-        <v>0.01989744253463456</v>
+        <v>0.01213737999623728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J4">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>0.2005402384408889</v>
+        <v>0.04085476516422223</v>
       </c>
       <c r="R4">
-        <v>1.804862145968</v>
+        <v>0.367692886478</v>
       </c>
       <c r="S4">
-        <v>0.1347891535509158</v>
+        <v>0.03658456394151191</v>
       </c>
       <c r="T4">
-        <v>0.1347891535509158</v>
+        <v>0.03658456394151191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J5">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>0.4006332114400001</v>
+        <v>0.07586437939255554</v>
       </c>
       <c r="R5">
-        <v>3.60569890296</v>
+        <v>0.682779414533</v>
       </c>
       <c r="S5">
-        <v>0.2692776864843509</v>
+        <v>0.06793492087431276</v>
       </c>
       <c r="T5">
-        <v>0.269277686484351</v>
+        <v>0.06793492087431278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J6">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.06968785909866668</v>
+        <v>0.03929931728988888</v>
       </c>
       <c r="R6">
-        <v>0.627190731888</v>
+        <v>0.353693855609</v>
       </c>
       <c r="S6">
-        <v>0.04683931570896923</v>
+        <v>0.03519169380782012</v>
       </c>
       <c r="T6">
-        <v>0.04683931570896924</v>
+        <v>0.03519169380782012</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H7">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I7">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J7">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>0.269339535248</v>
+        <v>0.03652801833444444</v>
       </c>
       <c r="R7">
-        <v>2.424055817232</v>
+        <v>0.3287521650099999</v>
       </c>
       <c r="S7">
-        <v>0.1810312396959472</v>
+        <v>0.03271005516838694</v>
       </c>
       <c r="T7">
-        <v>0.1810312396959472</v>
+        <v>0.03271005516838695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H8">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I8">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J8">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>0.03119637965266666</v>
+        <v>0.278182430624</v>
       </c>
       <c r="R8">
-        <v>0.280767416874</v>
+        <v>2.503641875616</v>
       </c>
       <c r="S8">
-        <v>0.02096802935873338</v>
+        <v>0.249106386480503</v>
       </c>
       <c r="T8">
-        <v>0.02096802935873338</v>
+        <v>0.2491063864805029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H9">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I9">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J9">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
-        <v>0.002232515427333333</v>
+        <v>0.02960355314311111</v>
       </c>
       <c r="R9">
-        <v>0.020092638846</v>
+        <v>0.266431978288</v>
       </c>
       <c r="S9">
-        <v>0.00150054107384698</v>
+        <v>0.0265093454461596</v>
       </c>
       <c r="T9">
-        <v>0.001500541073846981</v>
+        <v>0.0265093454461596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,46 +1039,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H10">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I10">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J10">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>0.01512349460066667</v>
+        <v>0.08923120831644446</v>
       </c>
       <c r="R10">
-        <v>0.136111451406</v>
+        <v>0.8030808748480001</v>
       </c>
       <c r="S10">
-        <v>0.01016495767534737</v>
+        <v>0.07990462882626338</v>
       </c>
       <c r="T10">
-        <v>0.01016495767534737</v>
+        <v>0.07990462882626335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H11">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I11">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J11">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>0.03021325923</v>
+        <v>0.1656959773031111</v>
       </c>
       <c r="R11">
-        <v>0.27191933307</v>
+        <v>1.491263795728</v>
       </c>
       <c r="S11">
-        <v>0.02030724441781531</v>
+        <v>0.1483771856754076</v>
       </c>
       <c r="T11">
-        <v>0.02030724441781531</v>
+        <v>0.1483771856754076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H12">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I12">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J12">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>0.005255423894</v>
+        <v>0.08583394259377777</v>
       </c>
       <c r="R12">
-        <v>0.047298815046</v>
+        <v>0.7725054833439999</v>
       </c>
       <c r="S12">
-        <v>0.00353232919104321</v>
+        <v>0.07686245040331534</v>
       </c>
       <c r="T12">
-        <v>0.003532329191043211</v>
+        <v>0.07686245040331532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H13">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I13">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J13">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>0.020311908666</v>
+        <v>0.07978112712888888</v>
       </c>
       <c r="R13">
-        <v>0.182807177994</v>
+        <v>0.7180301441599999</v>
       </c>
       <c r="S13">
-        <v>0.01365224753585126</v>
+        <v>0.07144228427309068</v>
       </c>
       <c r="T13">
-        <v>0.01365224753585127</v>
+        <v>0.07144228427309066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.021434</v>
+      </c>
+      <c r="H14">
+        <v>0.064302</v>
+      </c>
+      <c r="I14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.978762</v>
+      </c>
+      <c r="N14">
+        <v>2.936286</v>
+      </c>
+      <c r="O14">
+        <v>0.3819465121442868</v>
+      </c>
+      <c r="P14">
+        <v>0.3819465121442868</v>
+      </c>
+      <c r="Q14">
+        <v>0.020978784708</v>
+      </c>
+      <c r="R14">
+        <v>0.188809062372</v>
+      </c>
+      <c r="S14">
+        <v>0.01878605072088779</v>
+      </c>
+      <c r="T14">
+        <v>0.01878605072088779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.021434</v>
+      </c>
+      <c r="H15">
+        <v>0.064302</v>
+      </c>
+      <c r="I15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.312473</v>
+      </c>
+      <c r="O15">
+        <v>0.0406458950147437</v>
+      </c>
+      <c r="P15">
+        <v>0.04064589501474371</v>
+      </c>
+      <c r="Q15">
+        <v>0.002232515427333333</v>
+      </c>
+      <c r="R15">
+        <v>0.020092638846</v>
+      </c>
+      <c r="S15">
+        <v>0.001999169572346825</v>
+      </c>
+      <c r="T15">
+        <v>0.001999169572346825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.021434</v>
+      </c>
+      <c r="H16">
+        <v>0.064302</v>
+      </c>
+      <c r="I16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.3139526666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.9418580000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1225151017425393</v>
+      </c>
+      <c r="P16">
+        <v>0.1225151017425393</v>
+      </c>
+      <c r="Q16">
+        <v>0.006729261457333334</v>
+      </c>
+      <c r="R16">
+        <v>0.060563353116</v>
+      </c>
+      <c r="S16">
+        <v>0.006025908974764016</v>
+      </c>
+      <c r="T16">
+        <v>0.006025908974764016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.021434</v>
+      </c>
+      <c r="H17">
+        <v>0.064302</v>
+      </c>
+      <c r="I17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5829876666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.748963</v>
+      </c>
+      <c r="O17">
+        <v>0.2275017888991087</v>
+      </c>
+      <c r="P17">
+        <v>0.2275017888991087</v>
+      </c>
+      <c r="Q17">
+        <v>0.01249575764733333</v>
+      </c>
+      <c r="R17">
+        <v>0.112461818826</v>
+      </c>
+      <c r="S17">
+        <v>0.01118968234938833</v>
+      </c>
+      <c r="T17">
+        <v>0.01118968234938833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.021434</v>
+      </c>
+      <c r="H18">
+        <v>0.064302</v>
+      </c>
+      <c r="I18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3019996666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.905999</v>
+      </c>
+      <c r="O18">
+        <v>0.117850631054404</v>
+      </c>
+      <c r="P18">
+        <v>0.117850631054404</v>
+      </c>
+      <c r="Q18">
+        <v>0.006473060855333333</v>
+      </c>
+      <c r="R18">
+        <v>0.058257547698</v>
+      </c>
+      <c r="S18">
+        <v>0.005796486843268542</v>
+      </c>
+      <c r="T18">
+        <v>0.005796486843268543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.021434</v>
+      </c>
+      <c r="H19">
+        <v>0.064302</v>
+      </c>
+      <c r="I19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2807033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.8421099999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1095400711449175</v>
+      </c>
+      <c r="P19">
+        <v>0.1095400711449176</v>
+      </c>
+      <c r="Q19">
+        <v>0.006016595246666666</v>
+      </c>
+      <c r="R19">
+        <v>0.05414935721999999</v>
+      </c>
+      <c r="S19">
+        <v>0.005387731703439928</v>
+      </c>
+      <c r="T19">
+        <v>0.005387731703439929</v>
       </c>
     </row>
   </sheetData>
